--- a/biology/Médecine/Machine_à_laver_à_ultrasons/Machine_à_laver_à_ultrasons.xlsx
+++ b/biology/Médecine/Machine_à_laver_à_ultrasons/Machine_à_laver_à_ultrasons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Machine_%C3%A0_laver_%C3%A0_ultrasons</t>
+          <t>Machine_à_laver_à_ultrasons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La technologie de machine à laver à ultrasons actuelle est une invention d'un étudiant de Leningrad, en 1986[1], qui se serait basé sur des techniques de lavage à ultrason dont les preuves de concept remontent aux années 50[2]. Elle permet de laver du linge ou de la vaisselle sans utiliser de lessive[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La technologie de machine à laver à ultrasons actuelle est une invention d'un étudiant de Leningrad, en 1986, qui se serait basé sur des techniques de lavage à ultrason dont les preuves de concept remontent aux années 50. Elle permet de laver du linge ou de la vaisselle sans utiliser de lessive.
 Elle est donc sur ce point plus respectueuse de l'environnement que ses concurrentes qui laissent s'échapper dans les rivières des litres de lessive chimique tous les jours. Il existe cependant des lessives biodégradables.
-Les machines à laver à ultrasons sont vendues notamment au Japon[3].
+Les machines à laver à ultrasons sont vendues notamment au Japon.
 </t>
         </is>
       </c>
